--- a/SchedulingData/static3/pso/scheduling1_19.xlsx
+++ b/SchedulingData/static3/pso/scheduling1_19.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
-        <v>25.24</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="3">
@@ -485,22 +485,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>90.2</v>
+        <v>48.3</v>
       </c>
       <c r="E3" t="n">
-        <v>24.66</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -508,75 +508,75 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="D4" t="n">
-        <v>55.88</v>
+        <v>108.48</v>
       </c>
       <c r="E4" t="n">
-        <v>25.112</v>
+        <v>22.472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90.2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>127.1</v>
+        <v>44.46</v>
       </c>
       <c r="E5" t="n">
-        <v>22.1</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>84.40000000000001</v>
+        <v>37.5</v>
       </c>
       <c r="E6" t="n">
-        <v>24.72</v>
+        <v>27.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>26.16</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -584,75 +584,75 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>127.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>187.08</v>
+        <v>136.28</v>
       </c>
       <c r="E8" t="n">
-        <v>18.712</v>
+        <v>21.672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>187.08</v>
+        <v>44.46</v>
       </c>
       <c r="D9" t="n">
-        <v>265.74</v>
+        <v>114.26</v>
       </c>
       <c r="E9" t="n">
-        <v>15.456</v>
+        <v>23.344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>55.88</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>113.28</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
-        <v>20.012</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84.40000000000001</v>
+        <v>108.48</v>
       </c>
       <c r="D11" t="n">
-        <v>141.88</v>
+        <v>162.62</v>
       </c>
       <c r="E11" t="n">
-        <v>20.112</v>
+        <v>19.168</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>113.28</v>
+        <v>162.62</v>
       </c>
       <c r="D12" t="n">
-        <v>183.38</v>
+        <v>223.02</v>
       </c>
       <c r="E12" t="n">
-        <v>16.092</v>
+        <v>15.248</v>
       </c>
     </row>
     <row r="13">
@@ -675,212 +675,212 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D13" t="n">
-        <v>121.84</v>
+        <v>105.4</v>
       </c>
       <c r="E13" t="n">
-        <v>22.596</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>141.88</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>191.22</v>
+        <v>129.2</v>
       </c>
       <c r="E14" t="n">
-        <v>16.808</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>191.22</v>
+        <v>37.5</v>
       </c>
       <c r="D15" t="n">
-        <v>257.08</v>
+        <v>102.2</v>
       </c>
       <c r="E15" t="n">
-        <v>13.332</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>114.26</v>
       </c>
       <c r="D16" t="n">
-        <v>71.09999999999999</v>
+        <v>181.44</v>
       </c>
       <c r="E16" t="n">
-        <v>25.06</v>
+        <v>18.736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>89</v>
+        <v>102.2</v>
       </c>
       <c r="D17" t="n">
-        <v>153.98</v>
+        <v>163.84</v>
       </c>
       <c r="E17" t="n">
-        <v>20.872</v>
+        <v>18.536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>121.84</v>
+        <v>181.44</v>
       </c>
       <c r="D18" t="n">
-        <v>168.76</v>
+        <v>231.52</v>
       </c>
       <c r="E18" t="n">
-        <v>20.044</v>
+        <v>14.368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>168.76</v>
+        <v>163.84</v>
       </c>
       <c r="D19" t="n">
-        <v>219.06</v>
+        <v>215</v>
       </c>
       <c r="E19" t="n">
-        <v>16.644</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>153.98</v>
+        <v>105.4</v>
       </c>
       <c r="D20" t="n">
-        <v>221.72</v>
+        <v>188.8</v>
       </c>
       <c r="E20" t="n">
-        <v>18.168</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>71.09999999999999</v>
+        <v>215</v>
       </c>
       <c r="D21" t="n">
-        <v>123.7</v>
+        <v>297.84</v>
       </c>
       <c r="E21" t="n">
-        <v>22.42</v>
+        <v>12.356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>123.7</v>
+        <v>223.02</v>
       </c>
       <c r="D22" t="n">
-        <v>171</v>
+        <v>281.76</v>
       </c>
       <c r="E22" t="n">
-        <v>18.82</v>
+        <v>13.004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>183.38</v>
+        <v>188.8</v>
       </c>
       <c r="D23" t="n">
-        <v>258.36</v>
+        <v>230.72</v>
       </c>
       <c r="E23" t="n">
-        <v>11.724</v>
+        <v>13.988</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,32 +888,32 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>171</v>
+        <v>136.28</v>
       </c>
       <c r="D24" t="n">
-        <v>255.4</v>
+        <v>205.68</v>
       </c>
       <c r="E24" t="n">
-        <v>13.5</v>
+        <v>16.352</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>221.72</v>
+        <v>129.2</v>
       </c>
       <c r="D25" t="n">
-        <v>295.16</v>
+        <v>198.98</v>
       </c>
       <c r="E25" t="n">
-        <v>15.924</v>
+        <v>16.512</v>
       </c>
     </row>
   </sheetData>
